--- a/data/trans_dic/iP22_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>21,09%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,76; 31,46</t>
+          <t>6,37; 32,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,16; 32,68</t>
+          <t>12,9; 49,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,84</t>
+          <t>6,95; 38,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,52</t>
+          <t>0,0; 31,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 25,14</t>
+          <t>7,1; 39,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,56; 34,42</t>
+          <t>6,88; 37,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,59; 22,9</t>
+          <t>9,55; 44,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 22,87</t>
+          <t>14,3; 46,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,45; 27,07</t>
+          <t>9,24; 29,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,65; 31,87</t>
+          <t>13,99; 37,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,17</t>
+          <t>11,75; 34,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,96; 18,18</t>
+          <t>11,71; 35,13</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,85%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,26; 21,62</t>
+          <t>21,76; 31,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 26,56</t>
+          <t>22,16; 32,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,3</t>
+          <t>12,34; 19,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,11; 23,87</t>
+          <t>9,58; 17,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,83</t>
+          <t>16,06; 25,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,17; 25,89</t>
+          <t>24,56; 34,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,03</t>
+          <t>14,59; 22,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,22</t>
+          <t>12,7; 22,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,2</t>
+          <t>20,45; 27,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,85; 24,9</t>
+          <t>24,65; 31,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 16,02</t>
+          <t>14,08; 20,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,91</t>
+          <t>11,96; 18,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>15,26%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 32,25</t>
+          <t>20,73; 32,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,9; 49,12</t>
+          <t>31,13; 42,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 38,71</t>
+          <t>15,06; 24,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,04</t>
+          <t>10,18; 20,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 39,02</t>
+          <t>20,64; 31,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 37,74</t>
+          <t>15,78; 26,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 44,08</t>
+          <t>17,22; 27,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,3; 46,37</t>
+          <t>11,57; 21,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 29,19</t>
+          <t>22,62; 30,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 37,43</t>
+          <t>25,6; 33,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 34,72</t>
+          <t>17,27; 24,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 35,13</t>
+          <t>12,31; 19,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>14,37%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,73; 32,44</t>
+          <t>13,26; 21,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,13; 42,88</t>
+          <t>17,43; 26,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,06; 24,74</t>
+          <t>10,85; 19,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,18; 20,5</t>
+          <t>14,11; 23,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,64; 31,88</t>
+          <t>9,6; 17,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,78; 26,38</t>
+          <t>16,17; 25,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,22; 27,25</t>
+          <t>8,71; 16,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,57; 21,82</t>
+          <t>6,69; 14,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 30,36</t>
+          <t>12,63; 18,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,6; 33,67</t>
+          <t>17,85; 24,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,68</t>
+          <t>10,58; 16,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,13</t>
+          <t>11,26; 17,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP22_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 32,25</t>
+          <t>6,34; 31,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,9; 49,12</t>
+          <t>13,36; 48,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 38,71</t>
+          <t>7,51; 38,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 39,02</t>
+          <t>8,79; 37,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 37,74</t>
+          <t>6,16; 34,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 44,08</t>
+          <t>9,48; 43,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 29,19</t>
+          <t>9,66; 29,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 37,43</t>
+          <t>13,4; 36,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,75; 34,72</t>
+          <t>11,83; 35,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 22,67</t>
+          <t>12,23; 22,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,12; 30,95</t>
+          <t>18,43; 31,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 24,44</t>
+          <t>11,97; 23,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 23,14</t>
+          <t>10,47; 23,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 25,82</t>
+          <t>14,28; 26,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 31,53</t>
+          <t>18,53; 32,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,79; 25,88</t>
+          <t>13,69; 25,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,76</t>
+          <t>9,84; 21,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 22,31</t>
+          <t>14,6; 22,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,19; 29,37</t>
+          <t>19,7; 29,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,37; 22,81</t>
+          <t>14,49; 22,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 20,01</t>
+          <t>11,34; 19,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,76; 31,46</t>
+          <t>22,16; 31,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,16; 32,68</t>
+          <t>22,87; 32,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,84</t>
+          <t>12,07; 19,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,52</t>
+          <t>9,22; 16,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 25,14</t>
+          <t>16,21; 25,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,56; 34,42</t>
+          <t>24,01; 34,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,59; 22,9</t>
+          <t>14,82; 23,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,7; 22,87</t>
+          <t>13,18; 23,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,45; 27,07</t>
+          <t>20,31; 26,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,65; 31,87</t>
+          <t>24,59; 31,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,17</t>
+          <t>13,99; 19,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 18,18</t>
+          <t>12,01; 18,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 32,44</t>
+          <t>20,52; 32,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,13; 42,88</t>
+          <t>30,59; 43,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,06; 24,74</t>
+          <t>14,45; 24,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 20,5</t>
+          <t>10,24; 20,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,64; 31,88</t>
+          <t>21,02; 31,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,78; 26,38</t>
+          <t>16,03; 26,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 27,25</t>
+          <t>17,4; 27,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,57; 21,82</t>
+          <t>11,45; 21,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,62; 30,36</t>
+          <t>22,35; 30,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 33,67</t>
+          <t>25,4; 33,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,68</t>
+          <t>17,39; 24,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,13</t>
+          <t>11,67; 18,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 21,62</t>
+          <t>13,15; 21,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,43; 26,56</t>
+          <t>17,54; 27,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,3</t>
+          <t>11,0; 19,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 23,87</t>
+          <t>14,39; 24,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,83</t>
+          <t>9,85; 17,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,17; 25,89</t>
+          <t>15,9; 25,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,03</t>
+          <t>8,57; 16,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,22</t>
+          <t>6,94; 15,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,2</t>
+          <t>12,38; 18,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,85; 24,9</t>
+          <t>17,88; 25,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,58; 16,02</t>
+          <t>10,67; 16,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,91</t>
+          <t>11,42; 18,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,2; 24,51</t>
+          <t>19,43; 24,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,01; 30,71</t>
+          <t>24,8; 30,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,51; 19,13</t>
+          <t>14,5; 19,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,95; 17,67</t>
+          <t>13,01; 17,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,06; 21,9</t>
+          <t>16,94; 21,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,26; 26,24</t>
+          <t>21,19; 26,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,9</t>
+          <t>15,5; 19,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,83; 17,68</t>
+          <t>12,74; 17,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,8; 22,33</t>
+          <t>18,91; 22,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,92; 27,66</t>
+          <t>23,85; 27,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 18,82</t>
+          <t>15,59; 18,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,24; 16,92</t>
+          <t>13,35; 16,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP22_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 31,55</t>
+          <t>4,76; 32,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,36; 48,75</t>
+          <t>13,07; 49,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 38,24</t>
+          <t>8,1; 39,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,04</t>
+          <t>0,0; 31,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 37,89</t>
+          <t>9,39; 39,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 34,71</t>
+          <t>7,11; 37,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 43,54</t>
+          <t>9,29; 45,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 46,37</t>
+          <t>13,9; 48,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,66; 29,12</t>
+          <t>8,61; 28,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,4; 36,79</t>
+          <t>13,32; 37,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,83; 35,91</t>
+          <t>12,04; 35,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 35,13</t>
+          <t>11,6; 36,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 22,05</t>
+          <t>12,28; 23,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,43; 31,38</t>
+          <t>18,24; 31,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 23,78</t>
+          <t>12,14; 23,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 23,67</t>
+          <t>10,42; 23,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 26,08</t>
+          <t>14,0; 25,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 32,73</t>
+          <t>18,3; 31,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 25,64</t>
+          <t>13,59; 25,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,84; 21,74</t>
+          <t>9,65; 21,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 22,68</t>
+          <t>14,59; 22,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,7; 29,74</t>
+          <t>20,14; 29,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 22,58</t>
+          <t>13,96; 22,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 19,89</t>
+          <t>11,1; 19,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,16; 31,74</t>
+          <t>22,06; 31,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,87; 32,53</t>
+          <t>23,2; 32,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,07; 19,79</t>
+          <t>12,04; 19,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 16,66</t>
+          <t>9,43; 17,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 25,28</t>
+          <t>15,98; 24,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,01; 34,15</t>
+          <t>24,66; 34,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 23,07</t>
+          <t>14,78; 22,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 23,1</t>
+          <t>13,2; 23,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 26,87</t>
+          <t>20,57; 26,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,59; 31,51</t>
+          <t>24,97; 31,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,99; 19,92</t>
+          <t>14,56; 20,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,05</t>
+          <t>11,77; 18,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,52; 32,15</t>
+          <t>21,05; 32,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,59; 43,19</t>
+          <t>31,54; 43,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 24,54</t>
+          <t>14,85; 25,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,5</t>
+          <t>10,12; 20,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 31,94</t>
+          <t>21,11; 32,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 26,6</t>
+          <t>16,4; 26,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 27,29</t>
+          <t>17,05; 27,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 21,28</t>
+          <t>11,58; 21,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,35; 30,48</t>
+          <t>22,58; 30,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 33,12</t>
+          <t>25,17; 33,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,42</t>
+          <t>17,25; 24,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,67; 18,89</t>
+          <t>12,13; 19,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,15; 21,46</t>
+          <t>12,97; 21,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,54; 27,78</t>
+          <t>17,45; 27,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 19,52</t>
+          <t>11,04; 18,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,39; 24,57</t>
+          <t>14,07; 23,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,76</t>
+          <t>9,82; 17,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 25,51</t>
+          <t>15,65; 25,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,18</t>
+          <t>8,49; 16,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 15,27</t>
+          <t>6,58; 14,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,38; 18,46</t>
+          <t>12,55; 18,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,88; 25,13</t>
+          <t>17,73; 24,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,67; 16,06</t>
+          <t>10,87; 16,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,15</t>
+          <t>11,59; 17,86</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,43; 24,01</t>
+          <t>19,07; 24,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,8; 30,38</t>
+          <t>24,86; 30,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,04</t>
+          <t>14,48; 19,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,01; 17,87</t>
+          <t>13,0; 17,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 21,91</t>
+          <t>16,93; 21,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,39</t>
+          <t>21,15; 26,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,5; 19,74</t>
+          <t>15,4; 20,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,74; 17,52</t>
+          <t>12,69; 17,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,91; 22,2</t>
+          <t>18,94; 22,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,85; 27,8</t>
+          <t>23,78; 27,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,67</t>
+          <t>15,71; 18,87</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,35; 16,88</t>
+          <t>13,46; 16,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP22_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 32,39</t>
+          <t>14,9; 25,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 49,29</t>
+          <t>17,63; 30,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 39,84</t>
+          <t>14,59; 25,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,63</t>
+          <t>12,56; 24,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 39,3</t>
+          <t>12,42; 21,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 37,07</t>
+          <t>19,27; 31,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 45,75</t>
+          <t>12,93; 23,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 48,48</t>
+          <t>9,56; 22,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 28,71</t>
+          <t>14,69; 22,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 37,35</t>
+          <t>20,01; 28,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,04; 35,19</t>
+          <t>15,26; 22,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 36,58</t>
+          <t>12,49; 21,46</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,94%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 23,5</t>
+          <t>16,06; 25,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,24; 31,7</t>
+          <t>24,56; 34,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,14; 23,58</t>
+          <t>14,59; 22,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,42; 23,7</t>
+          <t>14,17; 28,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 25,9</t>
+          <t>21,76; 31,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,3; 31,71</t>
+          <t>22,16; 32,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,59; 25,6</t>
+          <t>12,34; 19,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 21,56</t>
+          <t>9,88; 18,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,59; 22,2</t>
+          <t>20,45; 27,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,14; 29,22</t>
+          <t>24,65; 31,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 22,69</t>
+          <t>14,08; 20,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,1; 19,99</t>
+          <t>12,74; 20,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>14,56%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,06; 31,9</t>
+          <t>20,64; 31,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,2; 32,96</t>
+          <t>15,78; 26,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 19,92</t>
+          <t>17,22; 27,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 17,27</t>
+          <t>8,28; 19,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,98; 24,85</t>
+          <t>20,73; 32,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,66; 34,36</t>
+          <t>31,13; 42,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,78; 22,91</t>
+          <t>15,06; 24,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,2; 23,12</t>
+          <t>10,29; 20,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,57; 26,9</t>
+          <t>22,62; 30,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,97; 31,98</t>
+          <t>25,6; 33,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,06</t>
+          <t>17,27; 24,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 18,44</t>
+          <t>11,1; 19,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,05; 32,41</t>
+          <t>9,6; 17,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,54; 43,09</t>
+          <t>16,17; 25,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 25,12</t>
+          <t>8,71; 16,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 20,35</t>
+          <t>7,15; 15,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 32,86</t>
+          <t>13,26; 21,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,4; 26,4</t>
+          <t>17,43; 26,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 27,28</t>
+          <t>10,85; 19,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 21,29</t>
+          <t>14,45; 24,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 30,38</t>
+          <t>12,63; 18,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,17; 33,15</t>
+          <t>17,85; 24,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 24,38</t>
+          <t>10,58; 16,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 19,21</t>
+          <t>11,85; 18,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,97; 21,61</t>
+          <t>17,06; 21,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 27,03</t>
+          <t>21,26; 26,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,04; 18,89</t>
+          <t>15,45; 19,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 23,8</t>
+          <t>12,9; 18,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 17,79</t>
+          <t>19,2; 24,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,65; 25,21</t>
+          <t>25,01; 30,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 16,06</t>
+          <t>14,51; 19,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,99</t>
+          <t>13,18; 18,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,4</t>
+          <t>18,8; 22,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 24,85</t>
+          <t>23,92; 27,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 16,32</t>
+          <t>15,63; 18,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 17,86</t>
+          <t>13,51; 17,56</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>21,73%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>27,56%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16,74%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>15,01%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>19,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>17,62%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>25,64%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>17,16%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>15,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>19,07; 24,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>24,86; 30,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,48; 19,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>13,0; 17,96</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>16,93; 21,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>21,15; 26,62</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>15,4; 20,18</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>12,69; 17,43</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>18,94; 22,29</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>23,78; 27,67</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>15,71; 18,87</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13,46; 16,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
